--- a/data/trans_bre/P15B_3_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15B_3_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-3.104924657464112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.053792669617342</v>
+        <v>-4.053792669617335</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-1</v>
@@ -649,7 +649,7 @@
         <v>-0.1322448245505769</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2966642177093667</v>
+        <v>-0.2966642177093663</v>
       </c>
     </row>
     <row r="5">
@@ -660,24 +660,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-80.93413062065636</v>
+        <v>-80.98273127163694</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.40817571235849</v>
+        <v>-17.12541794022568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-31.59815263786631</v>
+        <v>-31.10317700611006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-21.97451483710643</v>
+        <v>-21.6822870229364</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.7806312497066061</v>
+        <v>-0.7803885665178049</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8483872682898373</v>
+        <v>-0.8366895778963748</v>
       </c>
     </row>
     <row r="6">
@@ -688,24 +688,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-20.8186543268435</v>
+        <v>-20.47383045647472</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.20844235909444</v>
+        <v>11.61193142068811</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.03467244073132</v>
+        <v>20.57414922944185</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.239629451825659</v>
+        <v>7.516679260093285</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>2.796366464734739</v>
+        <v>2.449779498611822</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.417518046027303</v>
+        <v>2.37515762048019</v>
       </c>
     </row>
     <row r="7">
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-24.49341483883449</v>
+        <v>-23.44611880398622</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-26.01843965281366</v>
+        <v>-28.72916705240007</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-46.89587866332748</v>
+        <v>-47.33537129345397</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>55.94035365348699</v>
+        <v>57.39510128547962</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.798292781855279</v>
+        <v>-2.782889978603099</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21.18517329426818</v>
+        <v>20.02816617490847</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-5.991205055176292</v>
+        <v>-5.803193663571107</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -838,22 +838,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-37.71899261691999</v>
+        <v>-42.03990542965825</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-36.23879959549254</v>
+        <v>-34.54138807865431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-37.10089741972964</v>
+        <v>-38.60520769153126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-39.67911322363762</v>
+        <v>-37.09832558647634</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.9522544134975681</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.466538012764736</v>
+        <v>-4.759947096841363</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-14.44359818226541</v>
+        <v>-12.61045254031075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.053715170000658</v>
+        <v>-4.174844026827426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.784731332510949</v>
+        <v>6.252264551900052</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>0.5016295890914809</v>
+        <v>1.117575516628308</v>
       </c>
     </row>
     <row r="13">
@@ -926,23 +926,25 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-53.27430764766222</v>
+        <v>-51.23354526312011</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-20.25509386970776</v>
+        <v>-19.76667507372677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-22.90542361824278</v>
+        <v>-23.05574902563885</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-68.16097907471553</v>
+        <v>-62.88640493067437</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="J14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -952,23 +954,25 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-10.52826244841331</v>
+        <v>-10.50163302323863</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.049194524610081</v>
+        <v>7.463722206145575</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-10.02903908449174</v>
+        <v>-7.656538735526731</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>1.778703343887411</v>
-      </c>
-      <c r="J15" s="6" t="inlineStr"/>
+        <v>1.590505001877484</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3659404917097355</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -991,7 +995,7 @@
         <v>-4.793687523882189</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-13.4293222799317</v>
+        <v>-13.42932227993169</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.6957855771425484</v>
@@ -1014,13 +1018,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-74.82211467877762</v>
+        <v>-69.43256050675573</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-61.62818831240804</v>
+        <v>-61.10201424818785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-46.12902804264478</v>
+        <v>-45.80450728950851</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="6" t="inlineStr"/>
@@ -1036,13 +1040,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.02415873176723</v>
+        <v>15.40126442716863</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.050413421789433</v>
+        <v>-7.916551824401822</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62.64208903602812</v>
+        <v>55.20859337026411</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="6" t="inlineStr"/>
@@ -1094,22 +1098,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-90.23166434083741</v>
+        <v>-88.90069037084425</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-30.31230277777095</v>
+        <v>-29.25022201148629</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-32.50366907003229</v>
+        <v>-29.79400692224186</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-41.41761093600071</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-42.08955231480974</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.9020264737033035</v>
+        <v>-0.8929937018285251</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
@@ -1124,26 +1126,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-13.47511637154972</v>
+        <v>-11.11871268724332</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.604291312204118</v>
+        <v>7.969494469452595</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-3.649953227524557</v>
+        <v>-3.606278445321941</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-9.937147625659492</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.4629828711836684</v>
-      </c>
+        <v>-9.740638378904052</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>0.9394838006793619</v>
+        <v>1.492964873338021</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>-0.4620439879860223</v>
+        <v>-0.2885059837203999</v>
       </c>
     </row>
     <row r="22">
@@ -1167,7 +1167,7 @@
         <v>-12.28856980704729</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-2.923029975166679</v>
+        <v>-2.923029975166676</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.3905955804989593</v>
@@ -1179,7 +1179,7 @@
         <v>-0.7665396582608096</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.2308295683729466</v>
+        <v>-0.2308295683729464</v>
       </c>
     </row>
     <row r="23">
@@ -1190,26 +1190,26 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-43.02163393002535</v>
+        <v>-43.10301565007143</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-48.23809232464818</v>
+        <v>-48.51832032192156</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-30.52809219952598</v>
+        <v>-32.0656352141708</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-14.58561289634093</v>
+        <v>-17.0748421257146</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.8742219115516927</v>
+        <v>-0.8495711330968098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.9548306570740972</v>
+        <v>-0.9561173482401463</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>-0.7359269227071278</v>
+        <v>-0.7700601976857412</v>
       </c>
     </row>
     <row r="24">
@@ -1220,26 +1220,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.76472626172573</v>
+        <v>13.90888529036486</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-20.26540405851847</v>
+        <v>-20.21186784196508</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.839498749924654</v>
+        <v>3.379875578924085</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.303057187165749</v>
+        <v>6.645659675257487</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5875093064148861</v>
+        <v>0.6791060231250244</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.5386332908932002</v>
+        <v>-0.5569958526435633</v>
       </c>
       <c r="I24" s="6" t="inlineStr"/>
       <c r="J24" s="6" t="n">
-        <v>1.491559121135787</v>
+        <v>1.362229411700891</v>
       </c>
     </row>
     <row r="25">
@@ -1286,16 +1286,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-44.47332242349633</v>
+        <v>-43.53044611476869</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-13.85562875801632</v>
+        <v>-14.69521102095127</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-11.62639875247329</v>
+        <v>-11.29327234487073</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-39.76141889316854</v>
+        <v>-40.06436681757089</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>-1</v>
@@ -1303,7 +1303,7 @@
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>-0.9488883105113076</v>
+        <v>-0.9477858011466944</v>
       </c>
     </row>
     <row r="27">
@@ -1314,24 +1314,24 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-7.070830863958669</v>
+        <v>-3.992008082555194</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>29.05202409296321</v>
+        <v>27.13378410769763</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.49517495088476</v>
+        <v>9.590268139362854</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.661843325074159</v>
+        <v>4.187502997056829</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01981056447191014</v>
+        <v>2.040199407171162</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>0.9404661472925434</v>
+        <v>0.6998904554740458</v>
       </c>
     </row>
     <row r="28">
@@ -1378,28 +1378,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-33.04726828028486</v>
+        <v>-32.27924884512387</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-22.00324347664232</v>
+        <v>-21.76762502972014</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-14.2421597157429</v>
+        <v>-13.97156245653256</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-22.71143321573534</v>
+        <v>-22.52037148589103</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.8428747601493419</v>
+        <v>-0.8456162596619125</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.8799530673168863</v>
+        <v>-0.8768164352845403</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.752890180372373</v>
+        <v>-0.7615222385160381</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.8128047584277402</v>
+        <v>-0.8190801149492934</v>
       </c>
     </row>
     <row r="30">
@@ -1410,28 +1410,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-11.38037721112311</v>
+        <v>-11.84450732954484</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-10.38899760072177</v>
+        <v>-10.29354910615068</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.801715964332646</v>
+        <v>-1.57208998688999</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-8.496038627880194</v>
+        <v>-8.380889526361157</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.3680138470103372</v>
+        <v>-0.3974701367880464</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.53489758475895</v>
+        <v>-0.5472442932295586</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.1077275065103238</v>
+        <v>-0.1239122949333067</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.4584175354823263</v>
+        <v>-0.4562825893488202</v>
       </c>
     </row>
     <row r="31">
